--- a/monitoring/监控指标.xlsx
+++ b/monitoring/监控指标.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lie/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lie/workspaces/lie/github/specter/monitoring/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20D0E564-EDFE-274F-9A43-4156549BF885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0B6D46-7A08-DC45-9244-643638912F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="6460" windowWidth="28240" windowHeight="11000" xr2:uid="{9F224AA9-CFFD-7845-9155-61F8F858EB8A}"/>
+    <workbookView xWindow="3840" yWindow="1720" windowWidth="28240" windowHeight="15740" xr2:uid="{9F224AA9-CFFD-7845-9155-61F8F858EB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>资源</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网络接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>饱和度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,11 +67,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>磁盘目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>示例说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁盘目录空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络接口（带宽、丢包数）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,7 +162,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -167,11 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,15 +498,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1EA1B98-4570-DA40-B9A9-AB552983A153}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,108 +519,134 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5"/>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5"/>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5"/>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5"/>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="2" t="s">
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2" t="s">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="C16" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
